--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>match</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -49,114 +46,6 @@
     <t>Scorer_10</t>
   </si>
   <si>
-    <t>Germany vs Scotland 5-1</t>
-  </si>
-  <si>
-    <t>Hungary vs Switzerland 1-3</t>
-  </si>
-  <si>
-    <t>Spain vs Croatia 3-0</t>
-  </si>
-  <si>
-    <t>Italy vs Albania 2-1</t>
-  </si>
-  <si>
-    <t>Poland vs Netherlands 1-2</t>
-  </si>
-  <si>
-    <t>Slovenia vs Denmark 1-1</t>
-  </si>
-  <si>
-    <t>Serbia vs England 0-1</t>
-  </si>
-  <si>
-    <t>Romania vs Ukraine 3-0</t>
-  </si>
-  <si>
-    <t>Belgium vs Slovakia 0-1</t>
-  </si>
-  <si>
-    <t>Austria vs France 0-1</t>
-  </si>
-  <si>
-    <t>Turkiye vs Georgia</t>
-  </si>
-  <si>
-    <t>Portugal vs Czechia</t>
-  </si>
-  <si>
-    <t>Croatia vs Albania</t>
-  </si>
-  <si>
-    <t>Germany vs Hungary</t>
-  </si>
-  <si>
-    <t>Scotland vs Switzerland</t>
-  </si>
-  <si>
-    <t>Slovenia vs Serbia</t>
-  </si>
-  <si>
-    <t>Denmark vs England</t>
-  </si>
-  <si>
-    <t>Spain vs Italy</t>
-  </si>
-  <si>
-    <t>Slovakia vs Ukraine</t>
-  </si>
-  <si>
-    <t>Poland vs Austria</t>
-  </si>
-  <si>
-    <t>Netherlands vs France</t>
-  </si>
-  <si>
-    <t>Georgia vs Czechia</t>
-  </si>
-  <si>
-    <t>Turkiye vs Portugal</t>
-  </si>
-  <si>
-    <t>Belgium vs Romania</t>
-  </si>
-  <si>
-    <t>Switzerland vs Germany</t>
-  </si>
-  <si>
-    <t>Scotland vs Hungary</t>
-  </si>
-  <si>
-    <t>Albania vs Spain</t>
-  </si>
-  <si>
-    <t>Croatia vs Italy</t>
-  </si>
-  <si>
-    <t>Netherlands vs Austria</t>
-  </si>
-  <si>
-    <t>France vs Poland</t>
-  </si>
-  <si>
-    <t>England vs Slovenia</t>
-  </si>
-  <si>
-    <t>Denmark vs Serbia</t>
-  </si>
-  <si>
-    <t>Slovakia vs Romania</t>
-  </si>
-  <si>
-    <t>Ukraine vs Belgium</t>
-  </si>
-  <si>
-    <t>Georgia vs Portugal</t>
-  </si>
-  <si>
-    <t>Czechia vs Turkiye</t>
-  </si>
-  <si>
     <t>Wirtz,10',Germany</t>
   </si>
   <si>
@@ -229,13 +118,61 @@
     <t>R.Marin,53',Romania</t>
   </si>
   <si>
-    <t>Dragis,57',Romania</t>
-  </si>
-  <si>
     <t>Schranz,7',Slovakia</t>
   </si>
   <si>
     <t>Wober (O.G),38',France</t>
+  </si>
+  <si>
+    <t>matchid</t>
+  </si>
+  <si>
+    <t>Dragus,57',Romania</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Muldur,25',Turkiye</t>
+  </si>
+  <si>
+    <t>Mikautadze,32',Georgia</t>
+  </si>
+  <si>
+    <t>Guler,65',Turkiye</t>
+  </si>
+  <si>
+    <t>Akturkoglu,90+7',Turkiye</t>
+  </si>
+  <si>
+    <t>Conceciao,90+2',Portugal</t>
+  </si>
+  <si>
+    <t>Hranac(O.G),69',Portugal</t>
+  </si>
+  <si>
+    <t>Provod,62',Czech Republic</t>
   </si>
 </sst>
 </file>
@@ -271,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,308 +515,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -173,6 +173,36 @@
   </si>
   <si>
     <t>Provod,62',Czech Republic</t>
+  </si>
+  <si>
+    <t>Laci,11',Albania</t>
+  </si>
+  <si>
+    <t>Kramaric,74',Croatia</t>
+  </si>
+  <si>
+    <t>Gjasula (O.G),76',Croatia</t>
+  </si>
+  <si>
+    <t>Gjasula,90+5',Albania</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>Musiala,22',Germany</t>
+  </si>
+  <si>
+    <t>Gundogan,67',Germany</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>Mctominay,13',Scotland</t>
+  </si>
+  <si>
+    <t>Shaqiri,26',Switzerland</t>
   </si>
 </sst>
 </file>
@@ -518,7 +548,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -763,15 +793,48 @@
       <c r="A14">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>Shaqiri,26',Switzerland</t>
+  </si>
+  <si>
+    <t>Karnicnik,69',Slovenia</t>
+  </si>
+  <si>
+    <t>Jovic,90+5',Serbia</t>
+  </si>
+  <si>
+    <t>Kane,18',England</t>
+  </si>
+  <si>
+    <t>Hjulmand,34',Denmark</t>
+  </si>
+  <si>
+    <t>Calafiori (O.G),55',Spain</t>
+  </si>
+  <si>
+    <t>1,0</t>
   </si>
 </sst>
 </file>
@@ -547,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -837,82 +855,106 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -221,6 +221,57 @@
   </si>
   <si>
     <t>1,0</t>
+  </si>
+  <si>
+    <t>Schranz,17',Slovakia</t>
+  </si>
+  <si>
+    <t>Shaparenko,54',Ukraine</t>
+  </si>
+  <si>
+    <t>Yaremchuk,80',Ukraine</t>
+  </si>
+  <si>
+    <t>Trauner,9',Austria</t>
+  </si>
+  <si>
+    <t>Piatek,30',Poland</t>
+  </si>
+  <si>
+    <t>Baumgartner,66',Austria</t>
+  </si>
+  <si>
+    <t>Arnautovic (P),18',Austria</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>Mikautadze (P),45+4',Georgia</t>
+  </si>
+  <si>
+    <t>Schick,59'Czech Republic</t>
+  </si>
+  <si>
+    <t>Bernardo Silva,21',Portugal</t>
+  </si>
+  <si>
+    <t>Akaydin (O.G),28',Portugal</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes,55',Portugal</t>
+  </si>
+  <si>
+    <t>Tielemans,2',Belgium</t>
+  </si>
+  <si>
+    <t>De Bruyne,79',Belgium</t>
   </si>
 </sst>
 </file>
@@ -565,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -898,30 +949,90 @@
       <c r="A20">
         <v>21</v>
       </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>De Bruyne,79',Belgium</t>
+  </si>
+  <si>
+    <t>Ndoye,28',switzerland</t>
+  </si>
+  <si>
+    <t>Fullkrug,90+2',Germany</t>
+  </si>
+  <si>
+    <t>Csoboth,90+10',Hungary</t>
   </si>
 </sst>
 </file>
@@ -616,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1048,25 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>Csoboth,90+10',Hungary</t>
+  </si>
+  <si>
+    <t>Torres,13',Spain</t>
+  </si>
+  <si>
+    <t>Modric,55',Croatia</t>
+  </si>
+  <si>
+    <t>Zaccagni,90+8',Italy</t>
   </si>
 </sst>
 </file>
@@ -625,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1082,25 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>Zaccagni,90+8',Italy</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>Malen(O.G),6',Austria</t>
+  </si>
+  <si>
+    <t>Gakpo,47',Netherlands</t>
+  </si>
+  <si>
+    <t>Schmid,59',Austria</t>
+  </si>
+  <si>
+    <t>Memphis,75,Netherlands</t>
+  </si>
+  <si>
+    <t>Sabitzer,80',Austria</t>
+  </si>
+  <si>
+    <t>Mbappe (P),56',France</t>
+  </si>
+  <si>
+    <t>Lewandowski (P),79',Poland</t>
   </si>
 </sst>
 </file>
@@ -634,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1107,38 +1131,71 @@
       <c r="A30">
         <v>31</v>
       </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>

--- a/backend/excels/results.xlsx
+++ b/backend/excels/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Scorer_1</t>
   </si>
@@ -46,90 +46,9 @@
     <t>Scorer_10</t>
   </si>
   <si>
-    <t>Wirtz,10',Germany</t>
-  </si>
-  <si>
-    <t>Musiala,19',Germany</t>
-  </si>
-  <si>
-    <t>Havertz (p),45+1',Germany</t>
-  </si>
-  <si>
-    <t>Fullkrug,68',Germany</t>
-  </si>
-  <si>
-    <t>Rudiger (O.G),87',Scotland</t>
-  </si>
-  <si>
-    <t>Can,90+3',Germany</t>
-  </si>
-  <si>
-    <t>Duah,12',Switzerland</t>
-  </si>
-  <si>
-    <t>Varga,66',Hungary</t>
-  </si>
-  <si>
-    <t>Aebischer,45',Switzerland</t>
-  </si>
-  <si>
-    <t>Embolo,90+3',Switzerland</t>
-  </si>
-  <si>
-    <t>Morata,29',Spain</t>
-  </si>
-  <si>
-    <t>Ruiz,32',Spain</t>
-  </si>
-  <si>
-    <t>Carvajal,45+2',Spain</t>
-  </si>
-  <si>
-    <t>Bajrami,1',Albania</t>
-  </si>
-  <si>
-    <t>Bastoni,11',Italy</t>
-  </si>
-  <si>
-    <t>Barella,16',Italy</t>
-  </si>
-  <si>
-    <t>Buksa,16',Poland</t>
-  </si>
-  <si>
-    <t>Gakpo,29',Netherlands</t>
-  </si>
-  <si>
-    <t>Weghorst,83',Netherlands</t>
-  </si>
-  <si>
-    <t>Eriksen,17',Denmark</t>
-  </si>
-  <si>
-    <t>Janza,77',Slovenia</t>
-  </si>
-  <si>
-    <t>Bellingham,13',England</t>
-  </si>
-  <si>
-    <t>Stanciu,29',Romania</t>
-  </si>
-  <si>
-    <t>R.Marin,53',Romania</t>
-  </si>
-  <si>
-    <t>Schranz,7',Slovakia</t>
-  </si>
-  <si>
-    <t>Wober (O.G),38',France</t>
-  </si>
-  <si>
     <t>matchid</t>
   </si>
   <si>
-    <t>Dragus,57',Romania</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -154,96 +73,15 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>Muldur,25',Turkiye</t>
-  </si>
-  <si>
-    <t>Mikautadze,32',Georgia</t>
-  </si>
-  <si>
-    <t>Guler,65',Turkiye</t>
-  </si>
-  <si>
-    <t>Akturkoglu,90+7',Turkiye</t>
-  </si>
-  <si>
-    <t>Conceciao,90+2',Portugal</t>
-  </si>
-  <si>
-    <t>Hranac(O.G),69',Portugal</t>
-  </si>
-  <si>
-    <t>Provod,62',Czech Republic</t>
-  </si>
-  <si>
-    <t>Laci,11',Albania</t>
-  </si>
-  <si>
-    <t>Kramaric,74',Croatia</t>
-  </si>
-  <si>
-    <t>Gjasula (O.G),76',Croatia</t>
-  </si>
-  <si>
-    <t>Gjasula,90+5',Albania</t>
-  </si>
-  <si>
     <t>2,2</t>
   </si>
   <si>
-    <t>Musiala,22',Germany</t>
-  </si>
-  <si>
-    <t>Gundogan,67',Germany</t>
-  </si>
-  <si>
     <t>2,0</t>
   </si>
   <si>
-    <t>Mctominay,13',Scotland</t>
-  </si>
-  <si>
-    <t>Shaqiri,26',Switzerland</t>
-  </si>
-  <si>
-    <t>Karnicnik,69',Slovenia</t>
-  </si>
-  <si>
-    <t>Jovic,90+5',Serbia</t>
-  </si>
-  <si>
-    <t>Kane,18',England</t>
-  </si>
-  <si>
-    <t>Hjulmand,34',Denmark</t>
-  </si>
-  <si>
-    <t>Calafiori (O.G),55',Spain</t>
-  </si>
-  <si>
     <t>1,0</t>
   </si>
   <si>
-    <t>Schranz,17',Slovakia</t>
-  </si>
-  <si>
-    <t>Shaparenko,54',Ukraine</t>
-  </si>
-  <si>
-    <t>Yaremchuk,80',Ukraine</t>
-  </si>
-  <si>
-    <t>Trauner,9',Austria</t>
-  </si>
-  <si>
-    <t>Piatek,30',Poland</t>
-  </si>
-  <si>
-    <t>Baumgartner,66',Austria</t>
-  </si>
-  <si>
-    <t>Arnautovic (P),18',Austria</t>
-  </si>
-  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -253,67 +91,250 @@
     <t>0,3</t>
   </si>
   <si>
-    <t>Mikautadze (P),45+4',Georgia</t>
-  </si>
-  <si>
-    <t>Schick,59'Czech Republic</t>
-  </si>
-  <si>
-    <t>Bernardo Silva,21',Portugal</t>
-  </si>
-  <si>
-    <t>Akaydin (O.G),28',Portugal</t>
-  </si>
-  <si>
-    <t>Bruno Fernandes,55',Portugal</t>
-  </si>
-  <si>
-    <t>Tielemans,2',Belgium</t>
-  </si>
-  <si>
-    <t>De Bruyne,79',Belgium</t>
-  </si>
-  <si>
-    <t>Ndoye,28',switzerland</t>
-  </si>
-  <si>
-    <t>Fullkrug,90+2',Germany</t>
-  </si>
-  <si>
-    <t>Csoboth,90+10',Hungary</t>
-  </si>
-  <si>
-    <t>Torres,13',Spain</t>
-  </si>
-  <si>
-    <t>Modric,55',Croatia</t>
-  </si>
-  <si>
-    <t>Zaccagni,90+8',Italy</t>
-  </si>
-  <si>
     <t>2,3</t>
   </si>
   <si>
-    <t>Malen(O.G),6',Austria</t>
-  </si>
-  <si>
-    <t>Gakpo,47',Netherlands</t>
-  </si>
-  <si>
-    <t>Schmid,59',Austria</t>
-  </si>
-  <si>
     <t>Memphis,75,Netherlands</t>
   </si>
   <si>
-    <t>Sabitzer,80',Austria</t>
-  </si>
-  <si>
-    <t>Mbappe (P),56',France</t>
-  </si>
-  <si>
-    <t>Lewandowski (P),79',Poland</t>
+    <t>Duda,24,Slovakia</t>
+  </si>
+  <si>
+    <t>Marin (P),37,Romania</t>
+  </si>
+  <si>
+    <t>Mbappe (P),56,France</t>
+  </si>
+  <si>
+    <t>Lewandowski (P),79,Poland</t>
+  </si>
+  <si>
+    <t>Malen(O.G),6,Austria</t>
+  </si>
+  <si>
+    <t>Gakpo,47,Netherlands</t>
+  </si>
+  <si>
+    <t>Schmid,59,Austria</t>
+  </si>
+  <si>
+    <t>Sabitzer,80,Austria</t>
+  </si>
+  <si>
+    <t>Modric,55,Croatia</t>
+  </si>
+  <si>
+    <t>Zaccagni,90+8,Italy</t>
+  </si>
+  <si>
+    <t>Torres,13,Spain</t>
+  </si>
+  <si>
+    <t>Csoboth,90+10,Hungary</t>
+  </si>
+  <si>
+    <t>Ndoye,28,switzerland</t>
+  </si>
+  <si>
+    <t>Fullkrug,90+2,Germany</t>
+  </si>
+  <si>
+    <t>De Bruyne,79,Belgium</t>
+  </si>
+  <si>
+    <t>Tielemans,2,Belgium</t>
+  </si>
+  <si>
+    <t>Bernardo Silva,21,Portugal</t>
+  </si>
+  <si>
+    <t>Akaydin (O.G),28,Portugal</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes,55,Portugal</t>
+  </si>
+  <si>
+    <t>Schick,59,Czech Republic</t>
+  </si>
+  <si>
+    <t>Mikautadze (P),45+4,Georgia</t>
+  </si>
+  <si>
+    <t>Trauner,9,Austria</t>
+  </si>
+  <si>
+    <t>Piatek,30,Poland</t>
+  </si>
+  <si>
+    <t>Baumgartner,66,Austria</t>
+  </si>
+  <si>
+    <t>Arnautovic (P),18,Austria</t>
+  </si>
+  <si>
+    <t>Yaremchuk,80,Ukraine</t>
+  </si>
+  <si>
+    <t>Shaparenko,54,Ukraine</t>
+  </si>
+  <si>
+    <t>Schranz,17,Slovakia</t>
+  </si>
+  <si>
+    <t>Calafiori (O.G),55,Spain</t>
+  </si>
+  <si>
+    <t>Kane,18,England</t>
+  </si>
+  <si>
+    <t>Hjulmand,34,Denmark</t>
+  </si>
+  <si>
+    <t>Jovic,90+5,Serbia</t>
+  </si>
+  <si>
+    <t>Karnicnik,69,Slovenia</t>
+  </si>
+  <si>
+    <t>Mctominay,13,Scotland</t>
+  </si>
+  <si>
+    <t>Shaqiri,26,Switzerland</t>
+  </si>
+  <si>
+    <t>Gundogan,67,Germany</t>
+  </si>
+  <si>
+    <t>Musiala,22,Germany</t>
+  </si>
+  <si>
+    <t>Laci,11,Albania</t>
+  </si>
+  <si>
+    <t>Kramaric,74,Croatia</t>
+  </si>
+  <si>
+    <t>Gjasula (O.G),76,Croatia</t>
+  </si>
+  <si>
+    <t>Gjasula,90+5,Albania</t>
+  </si>
+  <si>
+    <t>Conceciao,90+2,Portugal</t>
+  </si>
+  <si>
+    <t>Hranac(O.G),69,Portugal</t>
+  </si>
+  <si>
+    <t>Provod,62,Czech Republic</t>
+  </si>
+  <si>
+    <t>Muldur,25,Turkiye</t>
+  </si>
+  <si>
+    <t>Mikautadze,32,Georgia</t>
+  </si>
+  <si>
+    <t>Guler,65,Turkiye</t>
+  </si>
+  <si>
+    <t>Akturkoglu,90+7,Turkiye</t>
+  </si>
+  <si>
+    <t>Wober (O.G),38,France</t>
+  </si>
+  <si>
+    <t>Schranz,7,Slovakia</t>
+  </si>
+  <si>
+    <t>Dragus,57,Romania</t>
+  </si>
+  <si>
+    <t>R.Marin,53,Romania</t>
+  </si>
+  <si>
+    <t>Stanciu,29,Romania</t>
+  </si>
+  <si>
+    <t>Bellingham,13,England</t>
+  </si>
+  <si>
+    <t>Janza,77,Slovenia</t>
+  </si>
+  <si>
+    <t>Eriksen,17,Denmark</t>
+  </si>
+  <si>
+    <t>Weghorst,83,Netherlands</t>
+  </si>
+  <si>
+    <t>Gakpo,29,Netherlands</t>
+  </si>
+  <si>
+    <t>Buksa,16,Poland</t>
+  </si>
+  <si>
+    <t>Bajrami,1,Albania</t>
+  </si>
+  <si>
+    <t>Bastoni,11,Italy</t>
+  </si>
+  <si>
+    <t>Barella,16,Italy</t>
+  </si>
+  <si>
+    <t>Carvajal,45+2,Spain</t>
+  </si>
+  <si>
+    <t>Ruiz,32,Spain</t>
+  </si>
+  <si>
+    <t>Morata,29,Spain</t>
+  </si>
+  <si>
+    <t>Duah,12,Switzerland</t>
+  </si>
+  <si>
+    <t>Aebischer,45,Switzerland</t>
+  </si>
+  <si>
+    <t>Varga,66,Hungary</t>
+  </si>
+  <si>
+    <t>Embolo,90+3,Switzerland</t>
+  </si>
+  <si>
+    <t>Can,90+3,Germany</t>
+  </si>
+  <si>
+    <t>Rudiger (O.G),87,Scotland</t>
+  </si>
+  <si>
+    <t>Fullkrug,68,Germany</t>
+  </si>
+  <si>
+    <t>Havertz (p),45+1,Germany</t>
+  </si>
+  <si>
+    <t>Musiala,19,Germany</t>
+  </si>
+  <si>
+    <t>Wirtz,10,Germany</t>
+  </si>
+  <si>
+    <t>Kvaratskhlia,2,Georgia</t>
+  </si>
+  <si>
+    <t>Mikautadze (P),57,Georgia</t>
+  </si>
+  <si>
+    <t>Calhanoglu,51,Turkiye</t>
+  </si>
+  <si>
+    <t>Soucek,66,Czech Republic</t>
+  </si>
+  <si>
+    <t>Tosun,90+4,Turkiye</t>
   </si>
 </sst>
 </file>
@@ -658,15 +679,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -699,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,25 +728,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -733,19 +754,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -753,16 +774,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -770,16 +791,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -787,16 +808,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -804,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -818,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -829,16 +850,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -846,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -868,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -888,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -905,19 +926,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -925,13 +946,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -939,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -953,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -967,13 +988,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,16 +1013,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,19 +1030,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1029,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,13 +1058,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1051,16 +1072,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,13 +1089,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,13 +1103,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1096,10 +1117,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1107,10 +1128,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1118,13 +1139,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1132,22 +1153,22 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1155,13 +1176,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,27 +1198,60 @@
         <v>30</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
